--- a/data/trans_orig/IP07A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17A4FFE-C97D-459E-9318-C6F5163E7013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92322885-363A-4811-8A5F-D80104C397C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DBE2275C-A7FB-4202-929B-840E9E1D9709}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CA25D843-1BEA-4AC9-BCC4-712DB5E8B50C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,229 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>8,48%</t>
@@ -100,39 +319,6 @@
     <t>10,45%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>44,18%</t>
   </si>
   <si>
@@ -160,33 +346,6 @@
     <t>46,95%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
     <t>37,67%</t>
   </si>
   <si>
@@ -211,108 +370,147 @@
     <t>54,42%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
     <t>10,35%</t>
   </si>
   <si>
@@ -340,27 +538,6 @@
     <t>15,88%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
     <t>42,14%</t>
   </si>
   <si>
@@ -373,9 +550,6 @@
     <t>41,05%</t>
   </si>
   <si>
-    <t>32,23%</t>
-  </si>
-  <si>
     <t>50,63%</t>
   </si>
   <si>
@@ -388,21 +562,6 @@
     <t>47,85%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
     <t>46,09%</t>
   </si>
   <si>
@@ -427,163 +586,43 @@
     <t>50,7%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>8,16%</t>
@@ -613,27 +652,6 @@
     <t>10,22%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
     <t>41,74%</t>
   </si>
   <si>
@@ -661,24 +679,6 @@
     <t>44,1%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
     <t>48,92%</t>
   </si>
   <si>
@@ -709,6 +709,195 @@
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>5,41%</t>
   </si>
   <si>
@@ -733,27 +922,6 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
     <t>41,02%</t>
   </si>
   <si>
@@ -781,18 +949,6 @@
     <t>48,29%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
     <t>52,26%</t>
   </si>
   <si>
@@ -814,94 +970,139 @@
     <t>57,22%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>7,64%</t>
@@ -931,27 +1132,6 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
     <t>37,84%</t>
   </si>
   <si>
@@ -979,15 +1159,6 @@
     <t>45,41%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
     <t>52,06%</t>
   </si>
   <si>
@@ -1012,175 +1183,34 @@
     <t>55,96%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>6,71%</t>
@@ -1207,24 +1237,6 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
     <t>37,72%</t>
   </si>
   <si>
@@ -1249,18 +1261,6 @@
     <t>41,82%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
     <t>53,88%</t>
   </si>
   <si>
@@ -1291,6 +1291,186 @@
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
   </si>
   <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
     <t>7,02%</t>
   </si>
   <si>
@@ -1318,24 +1498,6 @@
     <t>10,12%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
     <t>31,34%</t>
   </si>
   <si>
@@ -1363,15 +1525,6 @@
     <t>40,96%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>56,22%</t>
   </si>
   <si>
@@ -1399,88 +1552,124 @@
     <t>60,18%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>7,53%</t>
@@ -1507,18 +1696,6 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
     <t>33,24%</t>
   </si>
   <si>
@@ -1543,18 +1720,6 @@
     <t>28,71%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
     <t>57,16%</t>
   </si>
   <si>
@@ -1579,169 +1744,37 @@
     <t>61,4%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>7,42%</t>
@@ -1768,27 +1801,6 @@
     <t>5,25%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>33,14%</t>
   </si>
   <si>
@@ -1808,18 +1820,6 @@
   </si>
   <si>
     <t>38,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
   </si>
   <si>
     <t>56,57%</t>
@@ -2238,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E889D98B-479D-4D71-8D52-9061BCD9F71D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F2A585-F92D-4D62-A33A-A48395D8DF4F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2356,10 +2356,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>8356</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2371,238 +2371,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6757</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15113</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1820</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3167</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>43543</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>40079</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>83622</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>667</v>
+        <v>6257</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>647</v>
+        <v>7970</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>1314</v>
+        <v>14227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>44637</v>
+        <v>7559</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>53999</v>
+        <v>6178</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>98636</v>
+        <v>13737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,108 +2611,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>98550</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>103302</v>
+        <v>14148</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>201852</v>
+        <v>27964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4953</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>7653</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2751,121 +2751,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4953</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2700</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
-        <v>31457</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22544</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="M12" s="7">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>54001</v>
+        <v>7653</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>31457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>22544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>54001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>47</v>
@@ -2874,13 +2874,13 @@
         <v>29869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -2889,13 +2889,13 @@
         <v>23118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -2904,13 +2904,13 @@
         <v>52987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2925,13 @@
         <v>66279</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
@@ -2940,13 +2940,13 @@
         <v>48363</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>173</v>
@@ -2955,270 +2955,270 @@
         <v>114641</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>10052</v>
+        <v>667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>11257</v>
+        <v>647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>21308</v>
+        <v>1314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1379</v>
+        <v>1347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1417</v>
+        <v>1820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2796</v>
+        <v>3167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>40940</v>
+        <v>8356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>36814</v>
+        <v>6757</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>77754</v>
+        <v>15113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>43543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>778</v>
+        <v>40079</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N19" s="7">
-        <v>778</v>
+        <v>83622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7">
-        <v>44781</v>
+        <v>44637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="I20" s="7">
-        <v>39421</v>
+        <v>53999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="N20" s="7">
-        <v>84203</v>
+        <v>98636</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,72 +3227,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>97152</v>
+        <v>98550</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="I21" s="7">
-        <v>89687</v>
+        <v>103302</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="N21" s="7">
-        <v>186839</v>
+        <v>201852</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3301,34 +3301,34 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3352,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3367,166 +3367,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>6257</v>
+        <v>4490</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>7970</v>
+        <v>5624</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>14227</v>
+        <v>10114</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>20276</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="7">
+        <v>32</v>
+      </c>
+      <c r="I25" s="7">
+        <v>19458</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>39735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7">
-        <v>7559</v>
+        <v>40155</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="7">
+        <v>57</v>
+      </c>
+      <c r="I26" s="7">
+        <v>35288</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>120</v>
+      </c>
+      <c r="N26" s="7">
+        <v>75443</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6178</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" s="7">
-        <v>18</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13737</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,300 +3535,300 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>65569</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <v>14148</v>
+        <v>60370</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="N27" s="7">
-        <v>27964</v>
+        <v>125939</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>4490</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>5624</v>
+        <v>778</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>10114</v>
+        <v>778</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>2796</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10052</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11257</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" s="7">
         <v>30</v>
       </c>
-      <c r="C30" s="7">
-        <v>31</v>
-      </c>
-      <c r="D30" s="7">
-        <v>20276</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="N30" s="7">
+        <v>21308</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H30" s="7">
-        <v>32</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19458</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M30" s="7">
-        <v>63</v>
-      </c>
-      <c r="N30" s="7">
-        <v>39735</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D31" s="7">
-        <v>647</v>
+        <v>40940</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="7">
+        <v>48</v>
+      </c>
+      <c r="I31" s="7">
+        <v>36814</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="N31" s="7">
-        <v>647</v>
+        <v>77754</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7">
-        <v>40155</v>
+        <v>44781</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H32" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I32" s="7">
-        <v>35288</v>
+        <v>39421</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N32" s="7">
-        <v>75443</v>
+        <v>84203</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>180</v>
@@ -3843,49 +3843,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D33" s="7">
-        <v>65569</v>
+        <v>97152</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>60370</v>
+        <v>89687</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="N33" s="7">
-        <v>125939</v>
+        <v>186839</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,55 +3896,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>27851</v>
+        <v>1315</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1425</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="7">
-        <v>40</v>
-      </c>
-      <c r="I34" s="7">
-        <v>26337</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2739</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="M34" s="7">
-        <v>83</v>
-      </c>
-      <c r="N34" s="7">
-        <v>54188</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
         <v>4</v>
@@ -3953,13 +3953,13 @@
         <v>2726</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -3968,13 +3968,13 @@
         <v>3237</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -3983,109 +3983,109 @@
         <v>5963</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="D36" s="7">
-        <v>142474</v>
+        <v>27851</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="7">
+        <v>40</v>
+      </c>
+      <c r="I36" s="7">
+        <v>26337</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H36" s="7">
-        <v>186</v>
-      </c>
-      <c r="I36" s="7">
-        <v>126865</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>83</v>
+      </c>
+      <c r="N36" s="7">
+        <v>54188</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="M36" s="7">
-        <v>398</v>
-      </c>
-      <c r="N36" s="7">
-        <v>269339</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D37" s="7">
-        <v>1315</v>
+        <v>142474</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="7">
+        <v>186</v>
+      </c>
+      <c r="I37" s="7">
+        <v>126865</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1425</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>398</v>
+      </c>
+      <c r="N37" s="7">
+        <v>269339</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2739</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>211</v>
@@ -4097,7 +4097,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>252</v>
@@ -4157,13 +4157,13 @@
         <v>341367</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>469</v>
@@ -4172,13 +4172,13 @@
         <v>315869</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>982</v>
@@ -4187,13 +4187,13 @@
         <v>657236</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +4214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BBB92D-EE2E-4543-A1A4-86635CEB9386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969E450A-60FE-44A5-8D58-108A16D35A97}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4332,253 +4332,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5261</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2552</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7813</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1960</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>39870</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>42869</v>
+        <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>82739</v>
+        <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>646</v>
+        <v>5677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>675</v>
+        <v>4195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>1321</v>
+        <v>9872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>50788</v>
+        <v>8813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>50402</v>
+        <v>6822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>101191</v>
+        <v>15635</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,108 +4587,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>97833</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>195024</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6004</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>7580</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4697,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4712,13 +4712,13 @@
         <v>1613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4727,121 +4727,121 @@
         <v>1613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>25582</v>
+        <v>6004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>19779</v>
+        <v>1576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>45361</v>
+        <v>7580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>25582</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19779</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M13" s="7">
+        <v>65</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45361</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>38</v>
@@ -4850,13 +4850,13 @@
         <v>25902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4865,13 +4865,13 @@
         <v>30054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4880,13 +4880,13 @@
         <v>55955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4901,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -4916,13 +4916,13 @@
         <v>53022</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -4931,270 +4931,270 @@
         <v>110509</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>7065</v>
+        <v>646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>9787</v>
+        <v>675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>16852</v>
+        <v>1321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>625</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1335</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>2277</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>768</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
       <c r="N17" s="7">
-        <v>3045</v>
+        <v>1960</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>34991</v>
+        <v>5261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>36529</v>
+        <v>2552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>72</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>71520</v>
+        <v>7813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>39870</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>594</v>
+        <v>42869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="N19" s="7">
-        <v>594</v>
+        <v>82739</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7">
-        <v>48150</v>
+        <v>50788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I20" s="7">
-        <v>42550</v>
+        <v>50402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="N20" s="7">
-        <v>90699</v>
+        <v>101191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,54 +5203,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>92483</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>90227</v>
+        <v>97833</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="N21" s="7">
-        <v>182710</v>
+        <v>195024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5262,64 +5262,64 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>925</v>
+        <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>925</v>
+        <v>656</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5328,157 +5328,157 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>5677</v>
+        <v>3851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>4195</v>
+        <v>8317</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>9872</v>
+        <v>12168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>18567</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>23228</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>41795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7">
-        <v>8813</v>
+        <v>44436</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>339</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I26" s="7">
-        <v>6822</v>
+        <v>33667</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>340</v>
@@ -5490,10 +5490,10 @@
         <v>342</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N26" s="7">
-        <v>15635</v>
+        <v>78103</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>343</v>
@@ -5511,300 +5511,300 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>68898</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>65868</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>134766</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3851</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>594</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>594</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="H28" s="7">
-        <v>13</v>
-      </c>
-      <c r="I28" s="7">
-        <v>8317</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M28" s="7">
-        <v>19</v>
-      </c>
-      <c r="N28" s="7">
-        <v>12168</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>2044</v>
+        <v>2277</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>69</v>
+        <v>352</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>2044</v>
+        <v>3045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>18567</v>
+        <v>7065</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H30" s="7">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9787</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7">
+        <v>16852</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>23228</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M30" s="7">
-        <v>67</v>
-      </c>
-      <c r="N30" s="7">
-        <v>41795</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>34991</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>364</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H31" s="7">
+        <v>48</v>
+      </c>
+      <c r="I31" s="7">
+        <v>36529</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>656</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>369</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="N31" s="7">
-        <v>656</v>
+        <v>71520</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>370</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>371</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="7">
-        <v>44436</v>
+        <v>48150</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H32" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I32" s="7">
-        <v>33667</v>
+        <v>42550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M32" s="7">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N32" s="7">
-        <v>78103</v>
+        <v>90699</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>379</v>
@@ -5819,49 +5819,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D33" s="7">
-        <v>68898</v>
+        <v>92483</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I33" s="7">
-        <v>65868</v>
+        <v>90227</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="N33" s="7">
-        <v>134766</v>
+        <v>182710</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,55 +5872,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>22181</v>
+        <v>646</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2571</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H34" s="7">
-        <v>31</v>
-      </c>
-      <c r="I34" s="7">
-        <v>23158</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="M34" s="7">
-        <v>63</v>
-      </c>
-      <c r="N34" s="7">
-        <v>45339</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
         <v>7</v>
@@ -5929,13 +5929,13 @@
         <v>4946</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -5944,13 +5944,13 @@
         <v>3715</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -5959,94 +5959,94 @@
         <v>8662</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="D36" s="7">
-        <v>124687</v>
+        <v>22181</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H36" s="7">
+        <v>31</v>
+      </c>
+      <c r="I36" s="7">
+        <v>23158</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>63</v>
+      </c>
+      <c r="N36" s="7">
+        <v>45339</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H36" s="7">
-        <v>183</v>
-      </c>
-      <c r="I36" s="7">
-        <v>126599</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M36" s="7">
-        <v>362</v>
-      </c>
-      <c r="N36" s="7">
-        <v>251286</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="D37" s="7">
-        <v>646</v>
+        <v>124687</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>71</v>
+        <v>401</v>
       </c>
       <c r="H37" s="7">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="I37" s="7">
-        <v>1925</v>
+        <v>126599</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>403</v>
@@ -6055,16 +6055,16 @@
         <v>404</v>
       </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>362</v>
       </c>
       <c r="N37" s="7">
-        <v>2571</v>
+        <v>251286</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>405</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>406</v>
@@ -6073,7 +6073,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>262</v>
@@ -6133,13 +6133,13 @@
         <v>330548</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>453</v>
@@ -6148,13 +6148,13 @@
         <v>318893</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>934</v>
@@ -6163,13 +6163,13 @@
         <v>649442</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6190,7 +6190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8033E1FF-835E-43F0-AD97-6363DC829ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F2565-9D79-4DC5-9C82-2D933352861E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6308,253 +6308,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7412</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6787</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M4" s="7">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14199</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3601</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>417</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>4593</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>33100</v>
+        <v>1371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>41775</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="M6" s="7">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>74874</v>
+        <v>1371</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>2123</v>
+        <v>4976</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>425</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>426</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>2123</v>
+        <v>12850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>59380</v>
+        <v>6934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H8" s="7">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>55517</v>
+        <v>6052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="M8" s="7">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>114896</v>
+        <v>12986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,108 +6563,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>105615</v>
+        <v>13281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>105071</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>210686</v>
+        <v>27207</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4751</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>455</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3068</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>456</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>7819</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -6673,13 +6673,13 @@
         <v>727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6688,13 +6688,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6703,121 +6703,121 @@
         <v>727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>23196</v>
+        <v>4751</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="H12" s="7">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>21357</v>
+        <v>3068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>467</v>
+        <v>353</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="M12" s="7">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>44553</v>
+        <v>7819</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>23196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>21357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>44553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -6826,13 +6826,13 @@
         <v>29822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -6841,13 +6841,13 @@
         <v>31845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -6856,13 +6856,13 @@
         <v>61667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6877,13 @@
         <v>58496</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6892,13 +6892,13 @@
         <v>56270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -6907,270 +6907,270 @@
         <v>114766</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>7481</v>
+        <v>2123</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>483</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>6778</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>485</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>14260</v>
+        <v>2123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3601</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>636</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
       <c r="I17" s="7">
-        <v>2923</v>
+        <v>993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>3559</v>
+        <v>4593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>33044</v>
+        <v>7412</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>37014</v>
+        <v>6787</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="M18" s="7">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>70057</v>
+        <v>14199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>1431</v>
+        <v>33100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>1660</v>
+        <v>41775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="N19" s="7">
-        <v>3091</v>
+        <v>74874</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>492</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>493</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7">
-        <v>56823</v>
+        <v>59380</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="H20" s="7">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I20" s="7">
-        <v>57687</v>
+        <v>55517</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="N20" s="7">
-        <v>114510</v>
+        <v>114896</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,123 +7179,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D21" s="7">
-        <v>99414</v>
+        <v>105615</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="I21" s="7">
-        <v>106062</v>
+        <v>105071</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="N21" s="7">
-        <v>205476</v>
+        <v>210686</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>513</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1371</v>
+        <v>657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>508</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>187</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7304,172 +7304,172 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5295</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
-        <v>4976</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="H24" s="7">
-        <v>8</v>
-      </c>
       <c r="I24" s="7">
-        <v>7874</v>
+        <v>4049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>12850</v>
+        <v>9343</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>23262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>520</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
+        <v>521</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>522</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>21760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>524</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>45023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>526</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>527</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7">
-        <v>6934</v>
+        <v>47735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>527</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="I26" s="7">
-        <v>6052</v>
+        <v>45244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>338</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>532</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="N26" s="7">
-        <v>12986</v>
+        <v>92979</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>533</v>
@@ -7487,270 +7487,270 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>13281</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>27207</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>5295</v>
+        <v>1431</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>536</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1660</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4049</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="M28" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>9343</v>
+        <v>3091</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>542</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>543</v>
+        <v>383</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1650</v>
+        <v>636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>544</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>43</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>2923</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>540</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>1650</v>
+        <v>3559</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>71</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>23262</v>
+        <v>7481</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H30" s="7">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6778</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="M30" s="7">
+        <v>19</v>
+      </c>
+      <c r="N30" s="7">
+        <v>14260</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="H30" s="7">
-        <v>33</v>
-      </c>
-      <c r="I30" s="7">
-        <v>21760</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="M30" s="7">
-        <v>64</v>
-      </c>
-      <c r="N30" s="7">
-        <v>45023</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>33044</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>553</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>368</v>
+        <v>554</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I31" s="7">
-        <v>657</v>
+        <v>37014</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>95</v>
+      </c>
+      <c r="N31" s="7">
+        <v>70057</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>657</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>560</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D32" s="7">
-        <v>47735</v>
+        <v>56823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>560</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>561</v>
@@ -7759,28 +7759,28 @@
         <v>562</v>
       </c>
       <c r="H32" s="7">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I32" s="7">
-        <v>45244</v>
+        <v>57687</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>563</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>373</v>
+        <v>564</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M32" s="7">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="N32" s="7">
-        <v>92979</v>
+        <v>114510</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>565</v>
+        <v>415</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>566</v>
@@ -7795,49 +7795,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>99414</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>106062</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>205476</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,55 +7848,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>26310</v>
+        <v>3554</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2317</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>8</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5870</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="H34" s="7">
-        <v>30</v>
-      </c>
-      <c r="I34" s="7">
-        <v>20682</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="M34" s="7">
-        <v>67</v>
-      </c>
-      <c r="N34" s="7">
-        <v>46992</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
         <v>9</v>
@@ -7905,13 +7905,13 @@
         <v>6613</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -7920,13 +7920,13 @@
         <v>3916</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -7935,106 +7935,106 @@
         <v>10529</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="7">
+        <v>37</v>
+      </c>
+      <c r="D36" s="7">
+        <v>26310</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H36" s="7">
         <v>30</v>
       </c>
-      <c r="C36" s="7">
-        <v>161</v>
-      </c>
-      <c r="D36" s="7">
-        <v>117579</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="I36" s="7">
+        <v>20682</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H36" s="7">
-        <v>187</v>
-      </c>
-      <c r="I36" s="7">
-        <v>129779</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>67</v>
+      </c>
+      <c r="N36" s="7">
+        <v>46992</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="M36" s="7">
-        <v>348</v>
-      </c>
-      <c r="N36" s="7">
-        <v>247358</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>589</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="D37" s="7">
-        <v>3554</v>
+        <v>117579</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>587</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>588</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="H37" s="7">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="I37" s="7">
-        <v>2317</v>
+        <v>129779</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>403</v>
+        <v>589</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>590</v>
       </c>
       <c r="M37" s="7">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="N37" s="7">
-        <v>5870</v>
+        <v>247358</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>591</v>
@@ -8049,7 +8049,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>275</v>
@@ -8109,13 +8109,13 @@
         <v>354749</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>505</v>
@@ -8124,13 +8124,13 @@
         <v>353039</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>992</v>
@@ -8139,13 +8139,13 @@
         <v>707788</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92322885-363A-4811-8A5F-D80104C397C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6A2FAA-B0C9-4DF2-9FDB-A6A05C538A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CA25D843-1BEA-4AC9-BCC4-712DB5E8B50C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B8D9F2-ADA6-44B3-84AA-249891356821}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="615">
   <si>
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2007 (Tasa respuesta: 46,67%)</t>
   </si>
@@ -70,93 +70,174 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
@@ -166,1687 +247,1642 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1893,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1953,39 +1989,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2037,7 +2073,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2148,13 +2184,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2163,6 +2192,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2227,19 +2263,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F2A585-F92D-4D62-A33A-A48395D8DF4F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F8D2DA-276A-4944-9A2B-E33393AF7886}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2356,10 +2412,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7559</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2371,91 +2427,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14227</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2464,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2479,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2494,91 +2550,91 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6257</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7970</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>14227</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>7559</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6178</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
@@ -2590,19 +2646,19 @@
         <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>13737</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,106 +2720,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>29869</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>23118</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>52987</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>31457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>22544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>54001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -2772,13 +2828,13 @@
         <v>4953</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2787,13 +2843,13 @@
         <v>2700</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -2802,112 +2858,112 @@
         <v>7653</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>31457</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>22544</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>54001</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>29869</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>23118</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>52987</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>68</v>
@@ -2972,106 +3028,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>667</v>
+        <v>44637</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>647</v>
+        <v>53999</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="N16" s="7">
-        <v>1314</v>
+        <v>98636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>1347</v>
+        <v>43543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>1820</v>
+        <v>40079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="N17" s="7">
-        <v>3167</v>
+        <v>83622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>13</v>
@@ -3080,13 +3136,13 @@
         <v>8356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3095,13 +3151,13 @@
         <v>6757</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -3110,115 +3166,115 @@
         <v>15113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>43543</v>
+        <v>1347</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>40079</v>
+        <v>1820</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>83622</v>
+        <v>3167</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>44637</v>
+        <v>667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>647</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>85</v>
-      </c>
-      <c r="I20" s="7">
-        <v>53999</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1314</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M20" s="7">
-        <v>153</v>
-      </c>
-      <c r="N20" s="7">
-        <v>98636</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,112 +3330,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>647</v>
+        <v>40155</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>57</v>
+      </c>
+      <c r="I22" s="7">
+        <v>35288</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="N22" s="7">
-        <v>647</v>
+        <v>75443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>20276</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>19458</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>39735</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
@@ -3388,13 +3444,13 @@
         <v>4490</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3403,13 +3459,13 @@
         <v>5624</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3418,115 +3474,115 @@
         <v>10114</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>20276</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="7">
-        <v>19458</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>39735</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>40155</v>
+        <v>647</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="7">
-        <v>57</v>
-      </c>
-      <c r="I26" s="7">
-        <v>35288</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="M26" s="7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>75443</v>
+        <v>647</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,112 +3638,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>44781</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I28" s="7">
-        <v>778</v>
+        <v>39421</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="N28" s="7">
-        <v>778</v>
+        <v>84203</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7">
-        <v>1379</v>
+        <v>40940</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I29" s="7">
-        <v>1417</v>
+        <v>36814</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="N29" s="7">
-        <v>2796</v>
+        <v>77754</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>15</v>
@@ -3696,13 +3752,13 @@
         <v>10052</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -3711,13 +3767,13 @@
         <v>11257</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -3726,115 +3782,115 @@
         <v>21308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>40940</v>
+        <v>1379</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>36814</v>
+        <v>1417</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>77754</v>
+        <v>2796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>44781</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>176</v>
       </c>
       <c r="H32" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>39421</v>
+        <v>778</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>177</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>778</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="7">
-        <v>115</v>
-      </c>
-      <c r="N32" s="7">
-        <v>84203</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,106 +3952,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="D34" s="7">
-        <v>1315</v>
+        <v>167002</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>183</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="I34" s="7">
-        <v>1425</v>
+        <v>158005</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>184</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>488</v>
       </c>
       <c r="N34" s="7">
-        <v>2739</v>
+        <v>325007</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="D35" s="7">
-        <v>2726</v>
+        <v>142474</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="I35" s="7">
-        <v>3237</v>
+        <v>126865</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="N35" s="7">
-        <v>5963</v>
+        <v>269339</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>43</v>
@@ -4004,13 +4060,13 @@
         <v>27851</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>40</v>
@@ -4019,13 +4075,13 @@
         <v>26337</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -4034,115 +4090,115 @@
         <v>54188</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2726</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3237</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="7">
-        <v>142474</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H37" s="7">
-        <v>186</v>
-      </c>
-      <c r="I37" s="7">
-        <v>126865</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="M37" s="7">
-        <v>398</v>
+        <v>9</v>
       </c>
       <c r="N37" s="7">
-        <v>269339</v>
+        <v>5963</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>167002</v>
+        <v>1315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="H38" s="7">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>158005</v>
+        <v>1425</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>218</v>
       </c>
       <c r="M38" s="7">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>325007</v>
+        <v>2739</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,6 +4250,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4214,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969E450A-60FE-44A5-8D58-108A16D35A97}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2571934E-DD3C-4519-8826-94D696960BB0}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4332,106 +4393,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6822</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>15635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5677</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4195</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4440,13 +4501,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4455,13 +4516,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4470,115 +4531,115 @@
         <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5677</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4195</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>9872</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8813</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6822</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>15635</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,106 +4701,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>25902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>30054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>55955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>25582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>1613</v>
+        <v>19779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>1613</v>
+        <v>45361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -4748,13 +4809,13 @@
         <v>6004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4763,13 +4824,13 @@
         <v>1576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4778,115 +4839,115 @@
         <v>7580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>25582</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>19779</v>
+        <v>1613</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>45361</v>
+        <v>1613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>25902</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>30054</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>55955</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,106 +5009,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>646</v>
+        <v>50788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>675</v>
+        <v>50402</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="N16" s="7">
-        <v>1321</v>
+        <v>101191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>625</v>
+        <v>39870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>1335</v>
+        <v>42869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="N17" s="7">
-        <v>1960</v>
+        <v>82739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>7</v>
@@ -5056,13 +5117,13 @@
         <v>5261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5071,13 +5132,13 @@
         <v>2552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5086,115 +5147,115 @@
         <v>7813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>39870</v>
+        <v>625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>42869</v>
+        <v>1335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>82739</v>
+        <v>1960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>50788</v>
+        <v>646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>50402</v>
+        <v>675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>101191</v>
+        <v>1321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,112 +5311,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>44436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>656</v>
+        <v>33667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="N22" s="7">
-        <v>656</v>
+        <v>78103</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7">
-        <v>2044</v>
+        <v>18567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>23228</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="N23" s="7">
-        <v>2044</v>
+        <v>41795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -5364,13 +5425,13 @@
         <v>3851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -5379,13 +5440,13 @@
         <v>8317</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5394,115 +5455,115 @@
         <v>12168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>18567</v>
+        <v>2044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>23228</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>332</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>66</v>
       </c>
       <c r="M25" s="7">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>41795</v>
+        <v>2044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>44436</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>337</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>338</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>33667</v>
+        <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>78103</v>
+        <v>656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,112 +5619,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>48150</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I28" s="7">
-        <v>594</v>
+        <v>42550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="N28" s="7">
-        <v>594</v>
+        <v>90699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7">
-        <v>2277</v>
+        <v>34991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I29" s="7">
-        <v>768</v>
+        <v>36529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="N29" s="7">
-        <v>3045</v>
+        <v>71520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>354</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
@@ -5672,13 +5733,13 @@
         <v>7065</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5687,13 +5748,13 @@
         <v>9787</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -5702,115 +5763,115 @@
         <v>16852</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>34991</v>
+        <v>2277</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>36529</v>
+        <v>768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M31" s="7">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>71520</v>
+        <v>3045</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>371</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>48150</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>373</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>374</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>42550</v>
+        <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M32" s="7">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>90699</v>
+        <v>594</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>265</v>
+        <v>383</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,106 +5933,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="D34" s="7">
-        <v>646</v>
+        <v>178088</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="I34" s="7">
-        <v>1925</v>
+        <v>163495</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>493</v>
       </c>
       <c r="N34" s="7">
-        <v>2571</v>
+        <v>341584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>392</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D35" s="7">
-        <v>4946</v>
+        <v>124687</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>154</v>
+        <v>394</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="I35" s="7">
-        <v>3715</v>
+        <v>126599</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>184</v>
+        <v>398</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="N35" s="7">
-        <v>8662</v>
+        <v>251286</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>32</v>
@@ -5980,13 +6041,13 @@
         <v>22181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -5995,13 +6056,13 @@
         <v>23158</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -6010,115 +6071,115 @@
         <v>45339</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>286</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>124687</v>
+        <v>4946</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>399</v>
+        <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H37" s="7">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>126599</v>
+        <v>3715</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M37" s="7">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>251286</v>
+        <v>8662</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>178088</v>
+        <v>646</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>407</v>
+        <v>209</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>408</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="H38" s="7">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>163495</v>
+        <v>1925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="M38" s="7">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>341584</v>
+        <v>2571</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>414</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>415</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,6 +6231,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6190,8 +6256,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F2565-9D79-4DC5-9C82-2D933352861E}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C06BA62-4F2F-4292-8D91-8735B00EC5D9}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6207,7 +6273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6308,106 +6374,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6934</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7874</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -6416,13 +6482,13 @@
         <v>1371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6431,13 +6497,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6446,115 +6512,115 @@
         <v>1371</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>441</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4976</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>422</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>423</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>424</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7874</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>425</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>426</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>427</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>12850</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>428</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6934</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>431</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6052</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>434</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>436</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>12986</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>437</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>438</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,106 +6682,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>29822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>31845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>61667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>727</v>
+        <v>23196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>454</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>21357</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>455</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>456</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>727</v>
+        <v>44553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -6724,13 +6790,13 @@
         <v>4751</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6739,13 +6805,13 @@
         <v>3068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6754,115 +6820,115 @@
         <v>7819</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>23196</v>
+        <v>727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>452</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>21357</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>454</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>455</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>44553</v>
+        <v>727</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>457</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>458</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>29822</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>460</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>31845</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>61667</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,106 +6990,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>2123</v>
+        <v>59380</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>55517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="N16" s="7">
-        <v>2123</v>
+        <v>114896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>481</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>482</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>3601</v>
+        <v>33100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>993</v>
+        <v>41775</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="N17" s="7">
-        <v>4593</v>
+        <v>74874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>490</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -7032,13 +7098,13 @@
         <v>7412</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7047,13 +7113,13 @@
         <v>6787</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>481</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7062,115 +7128,115 @@
         <v>14199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>33100</v>
+        <v>3601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>41775</v>
+        <v>993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>490</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="M19" s="7">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>74874</v>
+        <v>4593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>59380</v>
+        <v>2123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>55517</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>114896</v>
+        <v>2123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>502</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,112 +7292,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>47735</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>513</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>514</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>657</v>
+        <v>45244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="N22" s="7">
-        <v>657</v>
+        <v>92979</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>1650</v>
+        <v>23262</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>21760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>524</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>525</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="N23" s="7">
-        <v>1650</v>
+        <v>45023</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>41</v>
+        <v>527</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
@@ -7340,13 +7406,13 @@
         <v>5295</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7355,13 +7421,13 @@
         <v>4049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>516</v>
+        <v>273</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -7370,115 +7436,115 @@
         <v>9343</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>519</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>23262</v>
+        <v>1650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>521</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="H25" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>21760</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>523</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>524</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="M25" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>45023</v>
+        <v>1650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>526</v>
+        <v>68</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>527</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>47735</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>529</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>530</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>45244</v>
+        <v>657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="M26" s="7">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>92979</v>
+        <v>657</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>414</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,112 +7600,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D28" s="7">
-        <v>1431</v>
+        <v>56823</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>543</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="I28" s="7">
-        <v>1660</v>
+        <v>57687</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>546</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="M28" s="7">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N28" s="7">
-        <v>3091</v>
+        <v>114510</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>548</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>383</v>
+        <v>549</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>258</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7">
-        <v>636</v>
+        <v>33044</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>551</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
+        <v>553</v>
       </c>
       <c r="H29" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I29" s="7">
-        <v>2923</v>
+        <v>37014</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>70</v>
+        <v>555</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="N29" s="7">
-        <v>3559</v>
+        <v>70057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>72</v>
+        <v>558</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
@@ -7648,13 +7714,13 @@
         <v>7481</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -7663,13 +7729,13 @@
         <v>6778</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -7678,115 +7744,115 @@
         <v>14260</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>33044</v>
+        <v>636</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>552</v>
+        <v>305</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>553</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="H31" s="7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>37014</v>
+        <v>2923</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="M31" s="7">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>70057</v>
+        <v>3559</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>58</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>56823</v>
+        <v>1431</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>561</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="H32" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>57687</v>
+        <v>1660</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>564</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="M32" s="7">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="N32" s="7">
-        <v>114510</v>
+        <v>3091</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>566</v>
+        <v>421</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,106 +7914,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="D34" s="7">
-        <v>3554</v>
+        <v>200694</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>283</v>
+        <v>580</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>581</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>440</v>
+        <v>582</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="I34" s="7">
-        <v>2317</v>
+        <v>196345</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>275</v>
+        <v>583</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>381</v>
+        <v>584</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="M34" s="7">
-        <v>8</v>
+        <v>555</v>
       </c>
       <c r="N34" s="7">
-        <v>5870</v>
+        <v>397039</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D35" s="7">
-        <v>6613</v>
+        <v>117579</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>49</v>
+        <v>591</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="I35" s="7">
-        <v>3916</v>
+        <v>129779</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="M35" s="7">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="N35" s="7">
-        <v>10529</v>
+        <v>247358</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>37</v>
@@ -7956,13 +8022,13 @@
         <v>26310</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -7971,13 +8037,13 @@
         <v>20682</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>584</v>
+        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>67</v>
@@ -7986,115 +8052,115 @@
         <v>46992</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>315</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>117579</v>
+        <v>6613</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>588</v>
+        <v>378</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>399</v>
+        <v>606</v>
       </c>
       <c r="H37" s="7">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>129779</v>
+        <v>3916</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>301</v>
+        <v>607</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>589</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="M37" s="7">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="N37" s="7">
-        <v>247358</v>
+        <v>10529</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
-        <v>275</v>
+        <v>5</v>
       </c>
       <c r="D38" s="7">
-        <v>200694</v>
+        <v>3554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>594</v>
+        <v>309</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>595</v>
+        <v>174</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="H38" s="7">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>196345</v>
+        <v>2317</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>597</v>
+        <v>312</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="M38" s="7">
-        <v>555</v>
+        <v>8</v>
       </c>
       <c r="N38" s="7">
-        <v>397039</v>
+        <v>5870</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>600</v>
+        <v>344</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>601</v>
+        <v>421</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>602</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,6 +8212,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6A2FAA-B0C9-4DF2-9FDB-A6A05C538A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFD9130-C41C-4EA8-880E-AC0B147973F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B8D9F2-ADA6-44B3-84AA-249891356821}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FDB1FE7-5140-4E31-B936-49CF5A6D8931}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="607">
   <si>
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2007 (Tasa respuesta: 46,67%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>54,71%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>45,29%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
   </si>
   <si>
     <t>56,33%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>50,87%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -154,1735 +154,1711 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>45,07%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
     <t>36,19%</t>
   </si>
   <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2016 (Tasa respuesta: 46,66%)</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>1,61%</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F8D2DA-276A-4944-9A2B-E33393AF7886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8F3D14-BA00-460D-8E0E-C0F259DFECC0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3088,10 +3064,10 @@
         <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -3100,13 +3076,13 @@
         <v>40079</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -3115,13 +3091,13 @@
         <v>83622</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3112,13 @@
         <v>8356</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3151,13 +3127,13 @@
         <v>6757</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -3166,13 +3142,13 @@
         <v>15113</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3163,13 @@
         <v>1347</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3202,13 +3178,13 @@
         <v>1820</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3217,13 +3193,13 @@
         <v>3167</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3214,13 @@
         <v>667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3253,13 +3229,13 @@
         <v>647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3668,10 +3644,10 @@
         <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -3683,10 +3659,10 @@
         <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3677,13 @@
         <v>40940</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -3716,13 +3692,13 @@
         <v>36814</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>108</v>
@@ -3731,13 +3707,13 @@
         <v>77754</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3728,13 @@
         <v>10052</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -3767,13 +3743,13 @@
         <v>11257</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -3782,13 +3758,13 @@
         <v>21308</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3779,13 @@
         <v>1379</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3818,13 +3794,13 @@
         <v>1417</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -4129,10 +4105,10 @@
         <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -4141,13 +4117,13 @@
         <v>5963</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4138,13 @@
         <v>1315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4177,13 +4153,13 @@
         <v>1425</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4195,10 +4171,10 @@
         <v>179</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4230,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4275,7 +4251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2571934E-DD3C-4519-8826-94D696960BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02084031-2736-4787-93D6-0565C3558766}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4399,13 +4375,13 @@
         <v>8813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4414,13 +4390,13 @@
         <v>6822</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4429,13 +4405,13 @@
         <v>15635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4426,13 @@
         <v>5677</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4465,13 +4441,13 @@
         <v>4195</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4480,13 +4456,13 @@
         <v>9872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,7 +4483,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4516,13 +4492,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4531,13 +4507,13 @@
         <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4534,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4573,7 +4549,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4588,7 +4564,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +4585,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4624,7 +4600,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4639,7 +4615,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4683,13 @@
         <v>25902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4722,13 +4698,13 @@
         <v>30054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4737,13 +4713,13 @@
         <v>55955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4734,13 @@
         <v>25582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4773,13 +4749,13 @@
         <v>19779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -4788,13 +4764,13 @@
         <v>45361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4785,13 @@
         <v>6004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4824,13 +4800,13 @@
         <v>1576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4839,13 +4815,13 @@
         <v>7580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,7 +4842,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4875,13 +4851,13 @@
         <v>1613</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4890,13 +4866,13 @@
         <v>1613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4893,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4932,7 +4908,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4947,7 +4923,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +4991,13 @@
         <v>50788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -5030,13 +5006,13 @@
         <v>50402</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -5045,13 +5021,13 @@
         <v>101191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5042,13 @@
         <v>39870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -5081,13 +5057,13 @@
         <v>42869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -5096,13 +5072,13 @@
         <v>82739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5093,7 @@
         <v>5261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>298</v>
@@ -5135,7 +5111,7 @@
         <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>301</v>
@@ -5174,7 +5150,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5183,13 +5159,13 @@
         <v>1335</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5198,13 +5174,13 @@
         <v>1960</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5195,13 @@
         <v>646</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5234,13 +5210,13 @@
         <v>675</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5249,13 +5225,13 @@
         <v>1321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5299,13 @@
         <v>44436</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -5338,13 +5314,13 @@
         <v>33667</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -5353,13 +5329,13 @@
         <v>78103</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5350,13 @@
         <v>18567</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5389,13 +5365,13 @@
         <v>23228</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>67</v>
@@ -5404,13 +5380,13 @@
         <v>41795</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5401,13 @@
         <v>3851</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -5440,13 +5416,13 @@
         <v>8317</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5455,13 +5431,13 @@
         <v>12168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5452,13 @@
         <v>2044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5506,13 +5482,13 @@
         <v>2044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,7 +5509,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5542,13 +5518,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5557,13 +5533,13 @@
         <v>656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5607,13 @@
         <v>48150</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H28" s="7">
         <v>55</v>
@@ -5646,13 +5622,13 @@
         <v>42550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>352</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M28" s="7">
         <v>123</v>
@@ -5661,13 +5637,13 @@
         <v>90699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5658,13 @@
         <v>34991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -5697,13 +5673,13 @@
         <v>36529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>94</v>
@@ -5712,13 +5688,13 @@
         <v>71520</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5709,13 @@
         <v>7065</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5748,13 +5724,13 @@
         <v>9787</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -5763,13 +5739,13 @@
         <v>16852</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5760,13 @@
         <v>2277</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5805,7 +5781,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5814,13 +5790,13 @@
         <v>3045</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>381</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5826,13 @@
         <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5865,13 +5841,13 @@
         <v>594</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5915,13 @@
         <v>178088</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H34" s="7">
         <v>231</v>
@@ -5954,13 +5930,13 @@
         <v>163495</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M34" s="7">
         <v>493</v>
@@ -5969,13 +5945,13 @@
         <v>341584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5966,13 @@
         <v>124687</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H35" s="7">
         <v>183</v>
@@ -6005,13 +5981,13 @@
         <v>126599</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M35" s="7">
         <v>362</v>
@@ -6020,13 +5996,13 @@
         <v>251286</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6017,13 @@
         <v>22181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -6056,13 +6032,13 @@
         <v>23158</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -6071,13 +6047,13 @@
         <v>45339</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,10 +6071,10 @@
         <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -6107,13 +6083,13 @@
         <v>3715</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>414</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -6122,13 +6098,13 @@
         <v>8662</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>417</v>
+        <v>102</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,7 +6125,7 @@
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6158,13 +6134,13 @@
         <v>1925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6173,13 +6149,13 @@
         <v>2571</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,7 +6211,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6256,7 +6232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C06BA62-4F2F-4292-8D91-8735B00EC5D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67B5FB5-D564-4F77-A4EF-5334075F5199}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6273,7 +6249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6380,13 +6356,13 @@
         <v>6934</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>419</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6395,13 +6371,13 @@
         <v>6052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -6410,13 +6386,13 @@
         <v>12986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6407,13 @@
         <v>4976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6446,13 +6422,13 @@
         <v>7874</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -6461,13 +6437,13 @@
         <v>12850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6458,13 @@
         <v>1371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6503,7 +6479,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6512,13 +6488,13 @@
         <v>1371</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,7 +6515,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6554,7 +6530,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6569,7 +6545,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,7 +6566,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6605,7 +6581,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6620,7 +6596,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6664,13 @@
         <v>29822</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -6703,13 +6679,13 @@
         <v>31845</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -6718,13 +6694,13 @@
         <v>61667</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6715,13 @@
         <v>23196</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -6754,13 +6730,13 @@
         <v>21357</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -6769,13 +6745,13 @@
         <v>44553</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6766,13 @@
         <v>4751</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6805,13 +6781,13 @@
         <v>3068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6820,13 +6796,13 @@
         <v>7819</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6817,13 @@
         <v>727</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6862,7 +6838,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6871,13 +6847,13 @@
         <v>727</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,7 +6874,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6913,7 +6889,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6928,7 +6904,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6972,13 @@
         <v>59380</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -7011,13 +6987,13 @@
         <v>55517</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M16" s="7">
         <v>167</v>
@@ -7026,13 +7002,13 @@
         <v>114896</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7023,13 @@
         <v>33100</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7062,13 +7038,13 @@
         <v>41775</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -7077,13 +7053,13 @@
         <v>74874</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7074,13 @@
         <v>7412</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7113,13 +7089,13 @@
         <v>6787</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7128,13 +7104,13 @@
         <v>14199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7125,13 @@
         <v>3601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7164,13 +7140,13 @@
         <v>993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -7179,13 +7155,13 @@
         <v>4593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>506</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7176,13 @@
         <v>2123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7221,7 +7197,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -7230,13 +7206,13 @@
         <v>2123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,10 +7283,10 @@
         <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -7319,13 +7295,13 @@
         <v>45244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -7334,13 +7310,13 @@
         <v>92979</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7331,13 @@
         <v>23262</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -7370,13 +7346,13 @@
         <v>21760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -7385,13 +7361,13 @@
         <v>45023</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7382,13 @@
         <v>5295</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7421,13 +7397,13 @@
         <v>4049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>273</v>
+        <v>527</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -7436,13 +7412,13 @@
         <v>9343</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>530</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>92</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7433,13 @@
         <v>1650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7478,7 +7454,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7493,7 +7469,7 @@
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>539</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,7 +7490,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7523,13 +7499,13 @@
         <v>657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7538,13 +7514,13 @@
         <v>657</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>414</v>
+        <v>537</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7588,13 @@
         <v>56823</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -7627,13 +7603,13 @@
         <v>57687</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -7642,13 +7618,13 @@
         <v>114510</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>550</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7639,13 @@
         <v>33044</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -7678,13 +7654,13 @@
         <v>37014</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -7693,13 +7669,13 @@
         <v>70057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7690,13 @@
         <v>7481</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -7729,13 +7705,13 @@
         <v>6778</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -7744,13 +7720,13 @@
         <v>14260</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,7 +7747,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>569</v>
+        <v>128</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7780,13 +7756,13 @@
         <v>2923</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>570</v>
+        <v>505</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>571</v>
+        <v>523</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -7795,13 +7771,13 @@
         <v>3559</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,13 +7792,13 @@
         <v>1431</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7831,13 +7807,13 @@
         <v>1660</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -7849,10 +7825,10 @@
         <v>173</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,13 +7896,13 @@
         <v>200694</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H34" s="7">
         <v>280</v>
@@ -7935,13 +7911,13 @@
         <v>196345</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>584</v>
+        <v>110</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="M34" s="7">
         <v>555</v>
@@ -7950,13 +7926,13 @@
         <v>397039</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,13 +7947,13 @@
         <v>117579</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H35" s="7">
         <v>187</v>
@@ -7986,13 +7962,13 @@
         <v>129779</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="M35" s="7">
         <v>348</v>
@@ -8001,13 +7977,13 @@
         <v>247358</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>597</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,13 +7998,13 @@
         <v>26310</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -8037,13 +8013,13 @@
         <v>20682</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>199</v>
+        <v>593</v>
       </c>
       <c r="M36" s="7">
         <v>67</v>
@@ -8052,13 +8028,13 @@
         <v>46992</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8049,13 @@
         <v>6613</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>378</v>
+        <v>177</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -8088,13 +8064,13 @@
         <v>3916</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>214</v>
+        <v>537</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -8103,13 +8079,13 @@
         <v>10529</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>610</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>611</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8100,13 @@
         <v>3554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8139,13 +8115,13 @@
         <v>2317</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -8154,13 +8130,13 @@
         <v>5870</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>344</v>
+        <v>605</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>172</v>
+        <v>606</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8216,7 +8192,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
